--- a/GUI + Reviews/202512/DAPPT.xlsx
+++ b/GUI + Reviews/202512/DAPPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0BD35DA-91A4-4F87-9A78-DCB1FDAB845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF080224-9967-4A1F-B726-56672C389779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B57AF5DF-3132-4FCD-BF81-80F6EC4A0656}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{996B5752-05AA-4953-982F-ABBD993CF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17462,22 +17462,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5D9B0F1-C0CB-4E05-B59C-F23C7C2ACA55}" name="Universe" displayName="Universe" ref="A1:M1895" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:M1895" xr:uid="{B5D9B0F1-C0CB-4E05-B59C-F23C7C2ACA55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2D2A2A6-E489-46B0-BBED-45A73CA46591}" name="Universe" displayName="Universe" ref="A1:M1895" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:M1895" xr:uid="{A2D2A2A6-E489-46B0-BBED-45A73CA46591}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D83D33DB-0C76-4C08-8D80-CAC06D67D620}" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{51AA5503-1A38-44AC-82F8-708B13521BBC}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{F26BBFCE-3351-490A-AACA-284202BFFDE6}" name="ISIN" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{669A3B8A-7655-4263-9CEA-68700B1225EF}" name="MIC" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{560B0E2A-FBB7-4E26-B548-1BAA7CCB9042}" name="Currency (Local)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{09C977EA-4FFF-473A-A5BE-1D7B60488BE7}" name="Price (EUR) " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1650C831-1B63-4D1C-ADE7-D44BC52D207F}" name="NOSH" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{7E29B065-DCC0-4326-B7E2-42F1DF7CDA52}" name="20 days AVG turnover EUR" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{B2977715-43DE-4EF7-99B6-D54D98CF5168}" name="3M AVG Turnover EUR" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{A00C3079-42B3-4906-B80B-71A0AABBB463}" name="3M AVG Turnover USD" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{ABA39FF6-D5C8-48F2-823C-009C723216D6}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{19938D8D-F474-4E59-92AA-347DAF175687}" name="6M AVG Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{73CA4893-8CA3-4675-8433-433BFD6F6032}" name="12M AVG Turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{52696C29-1C96-46D2-9D8A-9E10DD3CDDC9}" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{0BBF776A-5325-47F0-AC52-D8F4D99BC3FD}" name="Ticker" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AF6167E4-7655-4CCF-A041-2AA8E0121F8E}" name="ISIN" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{6E24BF80-4048-4596-80AF-91C3E1D68214}" name="MIC" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B3D672CB-054E-41B0-A4F3-2C3CDDA040B6}" name="Currency (Local)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B3511C67-A7D6-4093-83AB-77C68BD18662}" name="Price (EUR) " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{698C7172-6C0F-4A0D-A1EF-107F6689D4CC}" name="NOSH" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{18017D55-1EF2-4662-8A29-6D664C5594D7}" name="20 days AVG turnover EUR" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4772FD21-83A0-4A57-9915-4C826C2D874B}" name="3M AVG Turnover EUR" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{4D0B9F6B-B854-416E-9343-65AE05BCAE12}" name="3M AVG Turnover USD" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{563D440B-C274-47D7-9FDC-AFA411398A8D}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{0DB48C18-6B60-476C-B083-6C7401B78DE0}" name="6M AVG Turnover EUR" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{463190CC-0973-4700-BAE4-00BDD6DC5710}" name="12M AVG Turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17799,7 +17799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D64BD3A-AD5D-4C98-ACFD-2BA18782D5E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA97CAAC-599F-4FDD-ACDC-93F2E18914DD}">
   <dimension ref="A1:M1895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
